--- a/export.xlsx
+++ b/export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azhda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\versh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CDD448-F350-4E89-B1F5-8612EF09C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F13FC8-A896-40CB-8473-B4A4AA52EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Products Sheet" sheetId="1" r:id="rId1"/>
@@ -3721,8 +3721,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4027,6171 +4030,6201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y62" sqref="Y62:Y64"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="29.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" style="1"/>
+    <col min="49" max="49" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>9943733</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>183143230</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z2">
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="1">
         <v>20</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="1">
         <v>6</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>10002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>9943733</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>183143235</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="1">
         <v>20</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="1">
         <v>6</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>10003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>9943733</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>183143291</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z4">
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
         <v>6</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="1">
         <v>20</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="1">
         <v>6</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>10004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>9943733</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>183143725</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z5">
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
         <v>6</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="1">
         <v>20</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="1">
         <v>6</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>10005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>9943733</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>183143744</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>6</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="1">
         <v>20</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="1">
         <v>6</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BA6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BC6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>10006</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>9943733</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>183144166</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z7">
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
         <v>6</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="1">
         <v>20</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="1">
         <v>6</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BA7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BC7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>10007</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>6</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>9943733</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>183144507</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>6</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="1">
         <v>20</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AV8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="1">
         <v>6</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AX8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BA8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BC8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>10008</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>9943733</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>183144916</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>6</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="1">
         <v>20</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="1">
         <v>6</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AX9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BC9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10009</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>9943733</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>183145101</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>6</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="1">
         <v>20</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="1">
         <v>6</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AX10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BC10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10010</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>9943733</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>183145109</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>6</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="1">
         <v>20</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AU11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AV11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="1">
         <v>6</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AX11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BC11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10011</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>9943733</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>183145198</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>6</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AR12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AS12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="1">
         <v>20</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AU12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AV12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="1">
         <v>6</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AX12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BA12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BC12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>10012</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>4</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>9943733</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>183145558</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>6</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AA13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AE13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AH13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AI13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AR13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AS13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="1">
         <v>20</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AU13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AV13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="1">
         <v>6</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AX13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BA13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BC13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>10013</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>2</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>9943733</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>183146007</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>6</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AR14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AS14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="1">
         <v>20</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AU14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AV14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" s="1">
         <v>6</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AX14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BA14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BC14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>10014</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>9943733</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>183146793</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>6</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AE15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AH15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AI15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AP15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AR15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AS15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="1">
         <v>20</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AU15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AV15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="1">
         <v>6</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AX15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BA15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BC15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>10015</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>3</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>9943733</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>184246681</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>83210</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>6</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AH16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AI16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AP16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>10016</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>7</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>9959782</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>184246948</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>12</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AP17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>10017</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>2</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>9959782</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>184246950</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>12</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AH18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>10018</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>4</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>9959782</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>184246952</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>12</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AI19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AP19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AQ19" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>10019</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>6</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>9959784</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>184256509</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>13240415</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <v>12</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AI20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>10020</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>6</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>9959784</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>184256510</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>13240415</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>12</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AH21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AI21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>10021</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>6</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>9959784</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>184256512</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>12</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AH22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AI22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>10022</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>3</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>9959784</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>184256513</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>12</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>10023</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>14</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>9959784</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>184256516</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <v>12</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>10024</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>14</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>9978505</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>184256518</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>6</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AP25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>10025</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>9959782</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>184437139</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>12</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AD26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG26" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AH26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AI26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AP26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AQ26" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>10026</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>3</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>9978505</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>185441381</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>12</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AD27" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AE27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG27" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AP27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AQ27" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>10027</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>9978505</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>186004288</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>12</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD28" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AP28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AQ28" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>10028</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>9</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>9978505</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>186007495</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>12</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AE29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AP29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>10029</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>2</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>9978505</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>186020149</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>12</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AE30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG30" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AJ30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AP30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AQ30" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>10030</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>3</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>9978505</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>187100029</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>12</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>10031</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>3</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>9978505</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <v>187100564</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <v>12</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD32" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AE32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG32" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AJ32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AP32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AQ32" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>10032</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>3</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>9978505</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <v>187101765</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="1">
         <v>16151309</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>12</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AD33" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AE33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AJ33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AP33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AQ33" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>10033</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>3</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>9978505</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <v>187102611</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="1">
         <v>16151309</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <v>12</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AD34" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AJ34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AP34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AQ34" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>10034</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>3</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>9978505</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>187102651</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="1">
         <v>16151309</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <v>12</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AD35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AJ35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AP35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AQ35" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>10035</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>3</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>9978505</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <v>187102671</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="1">
         <v>16151309</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <v>12</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AD36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AE36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AP36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ36" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>10036</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>3</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>9999221</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <v>187169711</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="1">
         <v>13240408</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AJ37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>10037</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>3</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>9999221</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <v>187169715</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>13240408</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG38" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AJ38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>10038</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>3</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <v>9999221</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="1">
         <v>187169717</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="1">
         <v>13240408</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AJ39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>10039</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>3</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <v>9999221</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="1">
         <v>187169743</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="1">
         <v>13240408</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>10040</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>2</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>9999221</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="1">
         <v>187169744</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="1">
         <v>13240408</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AJ41" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>10041</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <v>9959782</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="1">
         <v>195510304</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="1">
         <v>12</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AD42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AE42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG42" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AH42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AI42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AJ42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AP42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ42" t="s">
+      <c r="AQ42" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>10042</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>8</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <v>9978505</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="1">
         <v>207044643</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>6</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AA43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AD43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AE43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AG43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AJ43" t="s">
+      <c r="AJ43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="AP43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ43" t="s">
+      <c r="AQ43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>10043</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>2</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="1">
         <v>9959784</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="1">
         <v>210096174</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="1">
         <v>12</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AH44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AI44" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AJ44" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>10044</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>2</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="1">
         <v>9959784</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="1">
         <v>210096338</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="1">
         <v>12</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG45" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AH45" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AI45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AJ45" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>10045</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>4</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="1">
         <v>9959784</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="1">
         <v>210097040</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="1">
         <v>12</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AB46" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AG46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AH46" t="s">
+      <c r="AH46" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AI46" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AJ46" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>10046</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>2</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <v>10435887</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="1">
         <v>210097517</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="1">
         <v>12</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AD47" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AE47" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG47" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AJ47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AP47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ47" t="s">
+      <c r="AQ47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AR47" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT47" t="s">
+      <c r="AT47" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AU47" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AW47" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>10047</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>2</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="1">
         <v>10435887</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="1">
         <v>210097526</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="1">
         <v>12</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AA48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AD48" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AE48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG48" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AJ48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP48" t="s">
+      <c r="AP48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ48" t="s">
+      <c r="AQ48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR48" t="s">
+      <c r="AR48" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT48" t="s">
+      <c r="AT48" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU48" t="s">
+      <c r="AU48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW48" t="s">
+      <c r="AW48" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>10048</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <v>2</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="1">
         <v>10435887</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="1">
         <v>210097619</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="1">
         <v>12</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AA49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AD49" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AE49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AJ49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP49" t="s">
+      <c r="AP49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ49" t="s">
+      <c r="AQ49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR49" t="s">
+      <c r="AR49" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT49" t="s">
+      <c r="AT49" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU49" t="s">
+      <c r="AU49" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW49" t="s">
+      <c r="AW49" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>10049</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="1">
         <v>2</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="1">
         <v>10435887</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="1">
         <v>210097623</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="1">
         <v>12</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AA50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AD50" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AE50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AG50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AJ50" t="s">
+      <c r="AJ50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP50" t="s">
+      <c r="AP50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ50" t="s">
+      <c r="AQ50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR50" t="s">
+      <c r="AR50" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT50" t="s">
+      <c r="AT50" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU50" t="s">
+      <c r="AU50" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW50" t="s">
+      <c r="AW50" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>10050</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="1">
         <v>2</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="1">
         <v>10435887</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="1">
         <v>210097629</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="1">
         <v>12</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AA51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AD51" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AE51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AG51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AJ51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AP51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ51" t="s">
+      <c r="AQ51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR51" t="s">
+      <c r="AR51" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT51" t="s">
+      <c r="AT51" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU51" t="s">
+      <c r="AU51" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW51" t="s">
+      <c r="AW51" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>10051</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <v>2</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="1">
         <v>10435887</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="Q52" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="1">
         <v>210097632</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="1">
         <v>12</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AA52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AD52" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AE52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG52" t="s">
+      <c r="AG52" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AJ52" t="s">
+      <c r="AJ52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AK52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AP52" t="s">
+      <c r="AP52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ52" t="s">
+      <c r="AQ52" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR52" t="s">
+      <c r="AR52" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT52" t="s">
+      <c r="AT52" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU52" t="s">
+      <c r="AU52" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW52" t="s">
+      <c r="AW52" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>10052</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="1">
         <v>2</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="1">
         <v>10435887</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="Q53" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="1">
         <v>210097653</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="1">
         <v>12</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AA53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AD53" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AE53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AJ53" t="s">
+      <c r="AJ53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP53" t="s">
+      <c r="AP53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ53" t="s">
+      <c r="AQ53" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR53" t="s">
+      <c r="AR53" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT53" t="s">
+      <c r="AT53" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU53" t="s">
+      <c r="AU53" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW53" t="s">
+      <c r="AW53" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>10053</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="1">
         <v>2</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="1">
         <v>10435887</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="1">
         <v>210097655</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="1">
         <v>12</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AA54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AD54" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AE54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AJ54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP54" t="s">
+      <c r="AP54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ54" t="s">
+      <c r="AQ54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR54" t="s">
+      <c r="AR54" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT54" t="s">
+      <c r="AT54" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU54" t="s">
+      <c r="AU54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW54" t="s">
+      <c r="AW54" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>10054</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <v>2</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="1">
         <v>10435887</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q55" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="1">
         <v>210098753</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="1">
         <v>12</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AA55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AD55" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AE55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AG55" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AJ55" t="s">
+      <c r="AJ55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP55" t="s">
+      <c r="AP55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ55" t="s">
+      <c r="AQ55" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR55" t="s">
+      <c r="AR55" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT55" t="s">
+      <c r="AT55" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU55" t="s">
+      <c r="AU55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW55" t="s">
+      <c r="AW55" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>10055</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <v>2</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="1">
         <v>10435887</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="1">
         <v>210099528</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="1">
         <v>12</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AA56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AD56" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AE56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG56" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AJ56" t="s">
+      <c r="AJ56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP56" t="s">
+      <c r="AP56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ56" t="s">
+      <c r="AQ56" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR56" t="s">
+      <c r="AR56" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT56" t="s">
+      <c r="AT56" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU56" t="s">
+      <c r="AU56" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW56" t="s">
+      <c r="AW56" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>10056</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <v>2</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="1">
         <v>10435887</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="Q57" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="1">
         <v>210099956</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="1">
         <v>12</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AA57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD57" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AE57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG57" t="s">
+      <c r="AG57" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AJ57" t="s">
+      <c r="AJ57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AP57" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ57" t="s">
+      <c r="AQ57" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR57" t="s">
+      <c r="AR57" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT57" t="s">
+      <c r="AT57" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU57" t="s">
+      <c r="AU57" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW57" t="s">
+      <c r="AW57" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>10057</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>2</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <v>10435887</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="1">
         <v>210100039</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="1">
         <v>12</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AA58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD58" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG58" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AJ58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AP58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ58" t="s">
+      <c r="AQ58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR58" t="s">
+      <c r="AR58" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT58" t="s">
+      <c r="AT58" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU58" t="s">
+      <c r="AU58" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW58" t="s">
+      <c r="AW58" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>10058</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <v>14</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="1">
         <v>9959784</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="1">
         <v>210100789</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="1">
         <v>12</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB59" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AG59" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AH59" t="s">
+      <c r="AH59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI59" t="s">
+      <c r="AI59" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ59" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>10059</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>2</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="1">
         <v>10435887</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q60" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="1">
         <v>210100806</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="1">
         <v>12</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AA60" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AD60" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AE60" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AG60" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AJ60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AP60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ60" t="s">
+      <c r="AQ60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR60" t="s">
+      <c r="AR60" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT60" t="s">
+      <c r="AT60" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU60" t="s">
+      <c r="AU60" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW60" t="s">
+      <c r="AW60" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>10060</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <v>2</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="1">
         <v>10435887</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="1">
         <v>210100817</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="1">
         <v>13100629</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="1">
         <v>12</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AA61" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AD61" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AE61" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AG61" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="AJ61" t="s">
+      <c r="AJ61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AP61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ61" t="s">
+      <c r="AQ61" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR61" t="s">
+      <c r="AR61" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT61" t="s">
+      <c r="AT61" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU61" t="s">
+      <c r="AU61" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AW61" t="s">
+      <c r="AW61" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>10061</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="1">
         <v>7</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="1">
         <v>9959782</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="1">
         <v>229809139</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="1">
         <v>12</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB62" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AE62" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG62" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AH62" t="s">
+      <c r="AH62" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AI62" t="s">
+      <c r="AI62" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AJ62" t="s">
+      <c r="AJ62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AP62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ62" t="s">
+      <c r="AQ62" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>10062</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="1">
         <v>7</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="1">
         <v>9959782</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="1">
         <v>229809161</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Y63" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="1">
         <v>12</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AB63" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AE63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AG63" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AH63" t="s">
+      <c r="AH63" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AI63" t="s">
+      <c r="AI63" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AJ63" t="s">
+      <c r="AJ63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AP63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ63" t="s">
+      <c r="AQ63" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>10063</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="1">
         <v>7</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="1">
         <v>9959782</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="1">
         <v>229809169</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="1">
         <v>13240405</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y64" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="1">
         <v>12</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AE64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AH64" t="s">
+      <c r="AH64" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AI64" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AJ64" t="s">
+      <c r="AJ64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP64" t="s">
+      <c r="AP64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AQ64" t="s">
+      <c r="AQ64" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>10064</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>7</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>10927551</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="1">
         <v>230355224</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="1">
         <v>12</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AA65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AE65" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AJ65" t="s">
+      <c r="AJ65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP65" t="s">
+      <c r="AP65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ65" t="s">
+      <c r="AQ65" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR65" t="s">
+      <c r="AR65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS65" t="s">
+      <c r="AS65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT65">
+      <c r="AT65" s="1">
         <v>20</v>
       </c>
-      <c r="AU65" t="s">
+      <c r="AU65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV65" t="s">
+      <c r="AV65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW65">
+      <c r="AW65" s="1">
         <v>6</v>
       </c>
-      <c r="AX65" t="s">
+      <c r="AX65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ65" t="s">
+      <c r="AZ65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA65" t="s">
+      <c r="BA65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC65" t="s">
+      <c r="BC65" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>10065</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="1">
         <v>7</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="1">
         <v>10927551</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="1">
         <v>230355301</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="1">
         <v>13240405</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="1">
         <v>12</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AA66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AE66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AG66" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AJ66" t="s">
+      <c r="AJ66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AP66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AQ66" t="s">
+      <c r="AQ66" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AR66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AS66" t="s">
+      <c r="AS66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AT66">
+      <c r="AT66" s="1">
         <v>20</v>
       </c>
-      <c r="AU66" t="s">
+      <c r="AU66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AV66" t="s">
+      <c r="AV66" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW66">
+      <c r="AW66" s="1">
         <v>6</v>
       </c>
-      <c r="AX66" t="s">
+      <c r="AX66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ66" t="s">
+      <c r="AZ66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BA66" t="s">
+      <c r="BA66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BC66" t="s">
+      <c r="BC66" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>10066</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>14</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <v>10928352</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="Q67" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="1">
         <v>230383402</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="1">
         <v>12</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AG67" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AJ67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>10067</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
         <v>14</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="1">
         <v>10928352</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="1">
         <v>230383429</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="1">
         <v>12</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AG68" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AJ68" t="s">
+      <c r="AJ68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>10068</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="1">
         <v>14</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="1">
         <v>10928352</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="1">
         <v>230383432</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="1">
         <v>13240409</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" s="1">
         <v>12</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AG69" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AJ69" t="s">
+      <c r="AJ69" s="1" t="s">
         <v>66</v>
       </c>
     </row>

--- a/export.xlsx
+++ b/export.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\versh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F13FC8-A896-40CB-8473-B4A4AA52EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7ABBB-25AE-4ADA-8D51-1BEC5688DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Products Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Export Groups Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Articles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="536">
   <si>
     <t>Код_товара</t>
   </si>
@@ -3687,18 +3701,44 @@
   <si>
     <t>Верма</t>
   </si>
+  <si>
+    <t>О нас</t>
+  </si>
+  <si>
+    <t>Оплата и доставка</t>
+  </si>
+  <si>
+    <t>Оплати и доставим</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Утро — это не просто начало нового дня, это возможность начать всё заново. Многие успешные люди утверждают, что именно утренние часы — самые продуктивные. В это время разум ясен, тело отдохнувшее, а мир вокруг ещё не погрузился в суету. Простые утренние ритуалы, такие как зарядка, медитация или чтение, могут задать тон всему дню. Даже чашка кофе в тишине может стать источником вдохновения. Главное — не спешить, а осознанно проживать каждое мгновение. Привычка вставать рано и использовать утро с пользой способна изменить жизнь. Ведь именно в тишине утра рождаются самые смелые идеи и мечты.
+  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3721,10 +3761,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4030,17 +4073,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="38.140625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="1"/>
     <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4276,9 +4321,6 @@
       <c r="W2" s="1">
         <v>13240405</v>
       </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
       <c r="Z2" s="1">
         <v>6</v>
       </c>
@@ -4511,9 +4553,6 @@
       <c r="W4" s="1">
         <v>13240405</v>
       </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
       <c r="Z4" s="1">
         <v>6</v>
       </c>
@@ -4627,9 +4666,6 @@
       <c r="W5" s="1">
         <v>13240405</v>
       </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
       <c r="Z5" s="1">
         <v>6</v>
       </c>
@@ -4856,9 +4892,6 @@
       <c r="W7" s="1">
         <v>13240405</v>
       </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
       <c r="Z7" s="1">
         <v>6</v>
       </c>
@@ -7547,6 +7580,9 @@
       <c r="W37" s="1">
         <v>13240408</v>
       </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
       <c r="AG37" s="1" t="s">
         <v>316</v>
       </c>
@@ -7609,6 +7645,9 @@
       <c r="W38" s="1">
         <v>13240408</v>
       </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
       <c r="AG38" s="1" t="s">
         <v>322</v>
       </c>
@@ -7671,6 +7710,9 @@
       <c r="W39" s="1">
         <v>13240408</v>
       </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
       <c r="AG39" s="1" t="s">
         <v>328</v>
       </c>
@@ -7732,6 +7774,9 @@
       </c>
       <c r="W40" s="1">
         <v>13240408</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
       </c>
       <c r="AG40" s="1" t="s">
         <v>334</v>
@@ -10237,7 +10282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10373,4 +10420,47 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807D61FF-6D4A-4DC3-B570-7654CE1C94BE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="130.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>